--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC8A036-C9B5-4F5F-9BEB-104A15BF8CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C710FD2-7757-4221-9940-2D495038E09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A34880D-A857-4CCA-82C5-55981B471E56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBED47A2-3998-45DF-AF54-853A9DFDA8C8}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9604439F-7597-4264-AC13-DF6E670E6660}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33155B69-3FB6-4E02-B12C-C2B07A9EE2A5}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9463758-5E58-4ED2-814D-1DEF4CC75E29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CE6C99-5232-4E36-B146-46DAF6AFE1B5}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C710FD2-7757-4221-9940-2D495038E09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8407234-C425-48BF-8973-72535ECF5BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBED47A2-3998-45DF-AF54-853A9DFDA8C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819C6A07-66E1-4FF4-BB13-D2167689DFA5}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33155B69-3FB6-4E02-B12C-C2B07A9EE2A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122BBF17-CAE0-4C7C-888A-8161A414E447}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CE6C99-5232-4E36-B146-46DAF6AFE1B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024CCDFF-1931-4264-A9EB-8DC2BF2011E3}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8407234-C425-48BF-8973-72535ECF5BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95581457-B61D-4353-82E9-0F81F8A6B44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819C6A07-66E1-4FF4-BB13-D2167689DFA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED57150-20CE-4EA1-A413-396B0D0259F2}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122BBF17-CAE0-4C7C-888A-8161A414E447}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47425068-6480-4001-9B58-7814A15B0D07}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024CCDFF-1931-4264-A9EB-8DC2BF2011E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8DF4C9-0D5B-4731-A50D-567A1F267051}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95581457-B61D-4353-82E9-0F81F8A6B44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD55F69-A223-449E-A9FB-3EA0322D295B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED57150-20CE-4EA1-A413-396B0D0259F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9C5488-6CDB-4B25-95BB-BD5A8D56A76F}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47425068-6480-4001-9B58-7814A15B0D07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD6EB34-7E69-4CC1-A594-892EDF246654}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8DF4C9-0D5B-4731-A50D-567A1F267051}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0505ECE5-6550-42E6-8338-52E99A6E6C02}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD55F69-A223-449E-A9FB-3EA0322D295B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BFA8A6-66EF-496A-B112-36D4E2B1DDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9C5488-6CDB-4B25-95BB-BD5A8D56A76F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FA4FBC-7B7C-46D5-ACDB-7A0FC55D4F59}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD6EB34-7E69-4CC1-A594-892EDF246654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF5AB89-6D0D-49AF-A255-1461F876F884}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0505ECE5-6550-42E6-8338-52E99A6E6C02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0068A2D-6C65-42C0-AAAB-22AC6B8920A9}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BFA8A6-66EF-496A-B112-36D4E2B1DDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4EF402-DB1A-4214-A9DE-CD9EC2244240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FA4FBC-7B7C-46D5-ACDB-7A0FC55D4F59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A505F61C-D282-4974-8058-F9CD5DFE81B7}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF5AB89-6D0D-49AF-A255-1461F876F884}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021A8575-50D3-4F88-ABEC-16A445ECB683}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.1999999999999997</v>
+        <v>1.2</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0068A2D-6C65-42C0-AAAB-22AC6B8920A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC05A373-6EF6-4A3F-9068-6059E3001B02}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4EF402-DB1A-4214-A9DE-CD9EC2244240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B68C27-88E3-42E4-A015-D706D85AB9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A505F61C-D282-4974-8058-F9CD5DFE81B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF78811-2A2F-49E1-AC47-B4174584533D}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021A8575-50D3-4F88-ABEC-16A445ECB683}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6A87CB-5794-49BF-8E0F-2DDBE8B3B1EA}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC05A373-6EF6-4A3F-9068-6059E3001B02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE24AC8C-25E2-4EFA-AB71-F9E172C791EC}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B68C27-88E3-42E4-A015-D706D85AB9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5758C4-5B51-4048-A9F1-E07154E5FC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF78811-2A2F-49E1-AC47-B4174584533D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57016B67-A557-4ADF-AC20-F299763141A8}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6A87CB-5794-49BF-8E0F-2DDBE8B3B1EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AD383A-2825-406D-8DF2-A8104C7717CB}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE24AC8C-25E2-4EFA-AB71-F9E172C791EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5677A2-9F76-4710-9BA3-1E3C92EF1ADA}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5758C4-5B51-4048-A9F1-E07154E5FC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8D82E8-F618-4995-A15B-0BFAE4A9514E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57016B67-A557-4ADF-AC20-F299763141A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA88914E-C02A-48A7-9DB0-1DF04AB9C563}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AD383A-2825-406D-8DF2-A8104C7717CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF95517-6937-47AC-95EF-096F73269DA6}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5677A2-9F76-4710-9BA3-1E3C92EF1ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E6609C-EBA2-4CB1-91B1-AB67C6348E8D}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8D82E8-F618-4995-A15B-0BFAE4A9514E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1214F846-7F33-443F-9240-97CD7D421634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA88914E-C02A-48A7-9DB0-1DF04AB9C563}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2643499B-9F76-4E52-A3A0-E7F313E0A6AF}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF95517-6937-47AC-95EF-096F73269DA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A350D4-82A7-4AE7-807C-42CF1CA1A0A9}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E6609C-EBA2-4CB1-91B1-AB67C6348E8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0061FD7C-8BFC-4BFE-B5F1-69F06D56870C}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C612A3A3-EF04-4F0D-939E-91DFAD9F62E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811AC13E-849A-4936-83EC-C5217E3CD251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2789DDA5-55D4-4C1A-B8D9-65346C86CB26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152FD164-742B-4A4E-8305-5D1E93176355}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C479C1-F99F-4F1F-95EB-9D43816037DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEDA2CF-AEF0-40FD-B0B8-347D7E430885}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CC3AC1-B8B5-411B-AF52-E8CA8463DD2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1870D3B5-8713-4925-B8CF-73174ABFEBDE}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C37F28B5-6E37-4D39-8C92-C64FCD5DCE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77F7A3C4-6771-4C0A-B866-F0589AA62261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -3726,7 +3726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5F16A9-FF5E-4E0D-9195-1A2CD326951C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB824E1B-60E2-46DD-9A5D-D68170613D70}">
   <dimension ref="A9:AM335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77F7A3C4-6771-4C0A-B866-F0589AA62261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB87EE27-F461-48E0-962D-2AF95449532C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -3726,7 +3726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB824E1B-60E2-46DD-9A5D-D68170613D70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065F83C7-25A2-4E32-B644-C056B1540211}">
   <dimension ref="A9:AM335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
